--- a/Running projects/GSK Dolmen Sky Tower Clifton Karachi/VO/002- Variation order for Fan Coil unit & WCPU - Sabro.xlsx
+++ b/Running projects/GSK Dolmen Sky Tower Clifton Karachi/VO/002- Variation order for Fan Coil unit & WCPU - Sabro.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADC7750-442A-4EB6-8492-23398CCDA951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39C8BC8-7670-4393-9D25-6F5323E0234D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,44 +375,44 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -559,15 +559,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>458932</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>675409</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>279663</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>185600</xdr:rowOff>
+      <xdr:colOff>496140</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -590,7 +590,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9178637" y="857250"/>
+          <a:off x="9395114" y="0"/>
           <a:ext cx="6020640" cy="8316486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -603,22 +603,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>69272</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:colOff>805296</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>60613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>290109</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>180462</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>546268</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>31497</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D89657-08AD-1765-5DDA-224F89BF87A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B7DB44-EDEA-3B47-E0F1-D9C8C39996F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -634,8 +634,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8788977" y="10148454"/>
-          <a:ext cx="6420746" cy="8735644"/>
+          <a:off x="9525001" y="8685068"/>
+          <a:ext cx="5334744" cy="8526065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -937,7 +937,7 @@
   <dimension ref="A7:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,10 +970,10 @@
     <row r="17" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:11" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="32"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="I19" s="12">
@@ -982,28 +982,28 @@
     </row>
     <row r="20" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
@@ -1019,15 +1019,15 @@
       <c r="I23" s="42"/>
     </row>
     <row r="24" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
     </row>
     <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
@@ -1098,21 +1098,21 @@
       <c r="D29" s="16">
         <v>1</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="32">
         <v>531000</v>
       </c>
-      <c r="F29" s="35">
+      <c r="F29" s="33">
         <v>45000</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="33">
         <f>SUM(E29+F29)*25%</f>
         <v>144000</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="34">
         <f>SUM(E29+F29+G29)*7.5%</f>
         <v>54000</v>
       </c>
-      <c r="I29" s="37">
+      <c r="I29" s="35">
         <f>H29+G29+F29+E29</f>
         <v>774000</v>
       </c>
@@ -1137,21 +1137,21 @@
       <c r="D30" s="16">
         <v>1</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="32">
         <v>413000</v>
       </c>
-      <c r="F30" s="35">
+      <c r="F30" s="33">
         <v>25000</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="33">
         <f>SUM(E30+F30)*25%</f>
         <v>109500</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="34">
         <f>SUM(E30+F30+G30)*7.5%</f>
         <v>41062.5</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="35">
         <f>H30+G30+F30+E30</f>
         <v>588562.5</v>
       </c>
@@ -1165,27 +1165,27 @@
       <c r="B31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="40" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="28">
         <v>1</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="32">
         <v>25000</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="33">
         <v>5000</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="33">
         <f>SUM(E31+F31)*25%</f>
         <v>7500</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="34">
         <f>SUM(E31+F31+G31)*7.5%</f>
         <v>2812.5</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="35">
         <f>H31+G31+F31+E31</f>
         <v>40312.5</v>
       </c>
@@ -1199,27 +1199,27 @@
       <c r="B32" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="40" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="28">
         <v>1</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="32">
         <v>0</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="33">
         <v>35000</v>
       </c>
-      <c r="G32" s="35">
+      <c r="G32" s="33">
         <f>SUM(E32+F32)*25%</f>
         <v>8750</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H32" s="34">
         <f>SUM(E32+F32+G32)*7.5%</f>
         <v>3281.25</v>
       </c>
-      <c r="I32" s="37">
+      <c r="I32" s="35">
         <f>H32+G32+F32+E32</f>
         <v>47031.25</v>
       </c>
@@ -1227,16 +1227,16 @@
       <c r="K32" s="21"/>
     </row>
     <row r="33" spans="1:15" s="26" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="25">
         <f>SUM(I29:I32)</f>
         <v>1449906.25</v>

--- a/Running projects/GSK Dolmen Sky Tower Clifton Karachi/VO/002- Variation order for Fan Coil unit & WCPU - Sabro.xlsx
+++ b/Running projects/GSK Dolmen Sky Tower Clifton Karachi/VO/002- Variation order for Fan Coil unit & WCPU - Sabro.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39C8BC8-7670-4393-9D25-6F5323E0234D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2450AB-DD04-4E05-A81E-15D37738C92B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$51</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
@@ -558,16 +558,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>675409</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>496140</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38395</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>158436</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>55713</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -590,7 +590,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9395114" y="0"/>
+          <a:off x="8451273" y="0"/>
           <a:ext cx="6020640" cy="8316486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -611,7 +611,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>546268</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>31497</xdr:rowOff>
+      <xdr:rowOff>31496</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -648,9 +648,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -688,9 +688,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -723,9 +723,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -758,9 +775,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -936,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,7 +1119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="8" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="8" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
         <v>1</v>
       </c>
@@ -1099,22 +1133,19 @@
         <v>1</v>
       </c>
       <c r="E29" s="32">
-        <v>531000</v>
+        <v>450000</v>
       </c>
       <c r="F29" s="33">
         <v>45000</v>
       </c>
-      <c r="G29" s="33">
-        <f>SUM(E29+F29)*25%</f>
-        <v>144000</v>
-      </c>
+      <c r="G29" s="33"/>
       <c r="H29" s="34">
         <f>SUM(E29+F29+G29)*7.5%</f>
-        <v>54000</v>
+        <v>37125</v>
       </c>
       <c r="I29" s="35">
         <f>H29+G29+F29+E29</f>
-        <v>774000</v>
+        <v>532125</v>
       </c>
       <c r="J29" s="21">
         <v>350000</v>
@@ -1124,7 +1155,7 @@
         <v>413000</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="8" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28">
         <v>2</v>
       </c>
@@ -1138,22 +1169,19 @@
         <v>1</v>
       </c>
       <c r="E30" s="32">
-        <v>413000</v>
+        <v>350000</v>
       </c>
       <c r="F30" s="33">
         <v>25000</v>
       </c>
-      <c r="G30" s="33">
-        <f>SUM(E30+F30)*25%</f>
-        <v>109500</v>
-      </c>
+      <c r="G30" s="33"/>
       <c r="H30" s="34">
         <f>SUM(E30+F30+G30)*7.5%</f>
-        <v>41062.5</v>
+        <v>28125</v>
       </c>
       <c r="I30" s="35">
         <f>H30+G30+F30+E30</f>
-        <v>588562.5</v>
+        <v>403125</v>
       </c>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
@@ -1177,17 +1205,14 @@
       <c r="F31" s="33">
         <v>5000</v>
       </c>
-      <c r="G31" s="33">
-        <f>SUM(E31+F31)*25%</f>
-        <v>7500</v>
-      </c>
+      <c r="G31" s="33"/>
       <c r="H31" s="34">
         <f>SUM(E31+F31+G31)*7.5%</f>
-        <v>2812.5</v>
+        <v>2250</v>
       </c>
       <c r="I31" s="35">
         <f>H31+G31+F31+E31</f>
-        <v>40312.5</v>
+        <v>32250</v>
       </c>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
@@ -1211,17 +1236,14 @@
       <c r="F32" s="33">
         <v>35000</v>
       </c>
-      <c r="G32" s="33">
-        <f>SUM(E32+F32)*25%</f>
-        <v>8750</v>
-      </c>
+      <c r="G32" s="33"/>
       <c r="H32" s="34">
         <f>SUM(E32+F32+G32)*7.5%</f>
-        <v>3281.25</v>
+        <v>2625</v>
       </c>
       <c r="I32" s="35">
         <f>H32+G32+F32+E32</f>
-        <v>47031.25</v>
+        <v>37625</v>
       </c>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
@@ -1239,7 +1261,7 @@
       <c r="H33" s="44"/>
       <c r="I33" s="25">
         <f>SUM(I29:I32)</f>
-        <v>1449906.25</v>
+        <v>1005125</v>
       </c>
       <c r="K33" s="21"/>
       <c r="L33" s="27"/>
@@ -1291,15 +1313,23 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
+      <c r="I40" s="3">
+        <f>I33*9.31%</f>
+        <v>93577.137499999997</v>
+      </c>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
     </row>
-    <row r="41" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
+      <c r="I41" s="3">
+        <f>I33-I40</f>
+        <v>911547.86250000005</v>
+      </c>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
